--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,14 +897,429 @@
           <t>망촉지탄, 「촉(蜀) 땅을 얻고 싶어 하는 탄식(歎息ㆍ嘆息)」이라는 뜻으로, 인간(人間)의 욕심(慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>00시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>상분지자</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>상분지도, 「똥도 핥을 놈」이라는 뜻으로, 남에게 아첨(阿諂)하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>08시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>08시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>磨杵作針</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻.</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>08시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>矯枉過直</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>교왕과직, 「구부러진 것을 바로잡으려다가 너무 곧게 한다」는 뜻으로, 잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>亡羊補牢</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>망양보뢰, 
+1) 「양을 잃고서 그 우리를 고친다」는 뜻으로,
+2) 실패한 후에 일을 대비함
+3) 이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>得隴望蜀</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>득롱망촉, 
+「농나라를 얻고 나니 촉나라를 갖고 싶다」
+ 인간의 욕심은 한이 없음을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>磨斧作針</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>마저작침</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마부작침, </t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>孤孑單身</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>고혈단신, 혈육이 없는 외로운 신세</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>簞瓢陋巷</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>단표누항, 
+「도시락과 표주박과 누추한 거리」라
+ 소박한 시골 생활을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>談笑自若</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>담소자약, 
+「태연하게 담소를 즐긴다」
+ 위험이나 곤란에 직면해 걱정과 근심이 있을 때라도 변함없이 평상시와 같은 태도를 가짐</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>琴瑟相和</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>금슬상화, 
+「거문고와 비파 소리가 조화를 이룬다」
+ 부부 사이가 다정하고 화목함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>橘化爲枳</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>귤화위지, 
+「강남의 귤을 강북에 심으면 탱자가 된다」
+ 사람도 환경에 따라 기질이 변한다는 말</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>衛正斥邪</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>위정척사, 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>09시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>兆民有和</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>조민유학</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>조민유화, 국민의 화합과 나아가 인류의 화합을 지향한다는 뜻을 나타냄</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>會者定離</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>회자정추</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>회자정리</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>共倒同亡</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>동리동망</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>공도동망, 
+「넘어져도 같이 넘어지고 망하여도 같이 망한다」
+ 운명을 같이 하는 것</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>苦盡甘來</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>고진감래, 
+「쓴 것이 다하면 단 것이 온다」
+ 고생 끝에 낙이 온다라는 말</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>20221220</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>00시 20분</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,14 +1312,85 @@
  고생 끝에 낙이 온다라는 말</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D39" t="n">
+        <v>20221220</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>談笑自若</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>담소자약, 
+「태연하게 담소를 즐긴다」
+ 위험이나 곤란에 직면해 걱정과 근심이 있을 때라도 변함없이 평상시와 같은 태도를 가짐</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>得隴望蜀</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>등롱망촉</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>득롱망촉, 
+「농나라를 얻고 나니 촉나라를 갖고 싶다」
+ 인간의 욕심은 한이 없음을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,14 +1383,1085 @@
           <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D42" t="n">
+        <v>20221222</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>麥秀之歎</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>맥수지탄| 
+「나무가 고요하고자 하나 바람이 그치지 않는다」
+ 부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>19시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>상분지도| 
+「똥도 핥을 놈」
+ 남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>19시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>磨杵作針</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>마부작침</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>마저작침| 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다,</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>來者勿拒</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>내자거안</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>내자물거|
+「오는 사람을 막지 말라」, 자유 의사에 맡기라는 말</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>수적천석 | 
+「물방울이 바위를 뚫는다」
+ 작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>19시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>輾轉不寐</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>전전불매| 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>19시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>혼정신성| 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>19시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>破邪顯正</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>파사현정| 
+「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
+ 그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>19시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>염화미소| 
+「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>19시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>麥秀之歎</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>망양지탄</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>맥수지탄| 
+「나무가 고요하고자 하나 바람이 그치지 않는다」
+ 부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>19시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>염화미소| 
+「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>19시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>상분지도| 
+「똥도 핥을 놈」
+ 남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>19시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>破邪顯正</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>파사현정| 
+「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
+ 그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>19시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>輾轉不寐</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>전전불반</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>전전불매| 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>19시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>민정 소</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>혼정신성| 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>19시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>수적천석 | 
+「물방울이 바위를 뚫는다」
+ 작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>19시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>輾轉不寐</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>전저불매</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>전전불매, 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>19시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>破邪顯正</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>파사현정, 
+「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
+그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>수적천석 , 
+「물방울이 바위를 뚫는다」
+작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>곡복사신| 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>무릉도원| 이 세상을 떠난 별천지를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>19시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>敝袍破笠</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>폐포파립, 
+「해진 옷과 부러진 갓」이란 뜻으로, 너절하고 구차한 차림새를 말함</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>창상세계| 변하고 변하는 세상</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>法古創新</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>온고지신</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">법고창신, 
+「옛것을 본받아 새로운 것을 창조한다」
+옛것에 토대를 두되 그것을 변화시킬 줄 알고 새 것을 만들어 가되 근본을 잃지 않아야 한다
+</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>창세계</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>창상세계, 변하고 변하는 세상</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>수석</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>수적천석 , 
+「물방울이 바위를 뚫는다」
+작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>혼정신성, 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>破邪顯正</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>파사현정, 
+「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
+그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>望蜀之歎</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>망양지부</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>망촉지탄, 
+「촉 땅을 얻고 싶어 하는 탄식」
+인간의 욕심은 한이 없음을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>면리장침, 
+「솜 속에 바늘을 감추어 꽂는다」
+겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>苦肉之策</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>고육지계</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>고육지책, 적을 속이는 수단으로서 제 몸 괴롭히는 것을 돌보지 않고 쓰는 계책</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>事必歸正</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>사심필정</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>사필귀정, 처음에는 시비곡직을 가리지 못하여 그릇되더라도 모든 일은 결국에 가서는 반드시 정리로 돌아감</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>花朝月夕</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>화용월석</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>화조월석, 
+1)「꽃이 핀 아침과 달 밝은 저녁」이란 뜻으로,
+2)「경치가 가장 좋은 때」를 이르는 말
+3)음력 2월 보름과 8월 보름 밤 봄과 가을</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>上下撐石</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>하석상대</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>상하탱석, 
+「윗돌 빼서 아랫돌 괴고, 아랫돌 빼서 윗돌을 괸다」
+「몹시 꼬이는 일을 당하여 임시변통으로 이리저리 맞추어 나감」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>亡羊補牢</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>망양부뢰</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>망양보뢰, 
+1)「양을 잃고서 그 우리를 고친다」
+2)실패한 후에 일을 대비함
+3)이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>暴虎馮河</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>포호빙하, 
+「범을 맨손으로 두드려 잡고, 큰 강을 배 없이 걸어서 건넌다」
+용기는 있으나 무모하기 이를 데 없는 행위를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>추처낭중, 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>反哺之孝</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>반포지효, 
+「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성」
+자식이 자라</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>수파전석</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>수적천석 , 
+「물방울이 바위를 뚫는다」
+작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>법창세계</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>창상세계, 변하고 변하는 세상</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>破邪顯正</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>파사현정, 
+「불교에서, 부처의 가르침에 어긋나는 사악한 도리를 깨뜨리고 바른 도리를 드러낸다」
+그릇된 생각을 버리고 올바른 도리를 행함을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>무릉도원, 이 세상을 떠난 별천지를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20시 22분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2454,14 +2454,464 @@
           <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>20230106</t>
-        </is>
+      <c r="D87" t="n">
+        <v>20230106</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>20시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>곡복사신: 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>09시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>혼정신성: 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>법창세계</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>창상세계: 변하고 변하는 세상</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>苦肉之策</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>고육지계</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>고육지책: 적을 속이는 수단으로서 제 몸 괴롭히는 것을 돌보지 않고 쓰는 계책</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>亡羊補牢</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>망양부년</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>망양보뢰: 
+1)「양을 잃고서 그 우리를 고친다」
+2)실패한 후에 일을 대비함
+3)이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>고식지계</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>면리장침: 
+「솜 속에 바늘을 감추어 꽂는다」
+겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>상분지도: 
+「똥도 핥을 놈」
+남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>暴虎馮河</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>포호빙하: 
+「범을 맨손으로 두드려 잡고, 큰 강을 배 없이 걸어서 건넌다」
+용기는 있으나 무모하기 이를 데 없는 행위를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>염화미소: 
+「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>09시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>추저낭중</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>추처낭중: 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>塞翁之馬</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>새옹지마</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>牽強附會</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>견강부회: 이치에 맞지 않는 말을 억지로 끌어 붙여 자기 주장의 조건에 맞도록 함</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>臨機應變</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>임기응변</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>藏頭露尾</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>종두득두</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>장두노미: 
+「머리는 감추었는데 꼬리는 드러나 있다」
+「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미 속으로 감추면서 들통 날까봐 전전긍긍하는 태도를 빗대기도 함</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>단순호치: 
+1)「붉은 입술과 하얀 이」란 뜻으로,
+2)여자의 아름다운 얼굴을 이르는 말
+3)미인의 얼굴</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>磨斧爲針</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마부위침: 
+「도끼를 갈아 바늘을 만든다」
+아무리 이루기 힘든 일도 끊임없는 노력과 끈기 있는 인내로 성공하고야 만다
+</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">침소봉대:
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>簞瓢陋巷</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>단표누항: 
+「도시락과 표주박과 누추한 거리」
+소박한 시골 생활을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>道聽塗說</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>도청도설: 
+1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」
+2)거리에서 들은 것을 남에게 아는 체하며 말함 
+3)깊이 생각 않고 예사로 듣고 말함</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>20230107</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,14 +2904,914 @@
 3)깊이 생각 않고 예사로 듣고 말함</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D106" t="n">
+        <v>20230107</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>추처낭중: 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>08시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>혼정신성: 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>08시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>상분지도: 
+「똥도 핥을 놈」
+남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>08시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>법창세계</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>창상세계: 변하고 변하는 세상</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>08시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>곡복사신: 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>10시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>暴虎馮河</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>파호빙하</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>포호빙하: 
+「범을 맨손으로 두드려 잡고, 큰 강을 배 없이 걸어서 건넌다」
+용기는 있으나 무모하기 이를 데 없는 행위를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>상분지도: 
+「똥도 핥을 놈」
+남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>고식지계</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>면리장침: 
+「솜 속에 바늘을 감추어 꽂는다」
+겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>혼정신성: 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>추저낭중</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>추처낭중: 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>염화미소: 
+「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">침소봉대:
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>磨斧爲針</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>마부작침</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마부위침: 
+「도끼를 갈아 바늘을 만든다」
+아무리 이루기 힘든 일도 끊임없는 노력과 끈기 있는 인내로 성공하고야 만다
+</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>臨機應變</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>임기응변</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>단순호치: 
+1)「붉은 입술과 하얀 이」란 뜻으로,
+2)여자의 아름다운 얼굴을 이르는 말
+3)미인의 얼굴</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>對症療法</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>대증요법</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>金蘭之契</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>금슬지</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>금란지계: 
+「쇠처럼 단단하고 난초 향기처럼 그윽한 사귐의 의리를 맺는다」
+사이 좋은 벗끼리 마음을 합치면 단단한 쇠도 자를 수 있고, 우정의 아름다움은 난의 향기와 같이 아주 친밀한 친구 사이를 이름</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>琴瑟相和</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>금슬상화: 
+「거문고와 비파 소리가 조화를 이룬다」
+부부 사이가 다정하고 화목함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>芝蘭之交</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>지란지교: 
+「지초와 난초 같은 향기로운 사귐」
+「벗 사이의 고상한 교제」를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>命在頃刻</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>명재경각: 
+「목숨이 경각에 달렸다」
+숨이 곧 끊어질 지경에 이름 거의 죽게 됨</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>苦盡甘來</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>고진감래: 
+「쓴 것이 다하면 단 것이 온다」
+고생 끝에 낙이 온다라는 말</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>敝衣破冠</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>폐의파관: 
+「해어진 옷과 부서진 갓」
+너절하고 구차한 차림새를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>尸位素餐</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>시위소찬 : 
+「재덕이나 공적도 없이 높은 자리에 앉아 녹만 받는다」
+자기 직책을 다하지 않음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>韋編三絶</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>위편삼절: 공자가 책을 하도 많이 읽어서 그것을 엮어 놓은 끈이 세 번이나 끊어졌다</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>畫蛇添足</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>화사첨족: 
+「뱀을 그리고 발을 더한다」
+하지 않아도 될 일을 하거나 필요 이상으로 쓸데 없는 일을 하여 도리어 실패함</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>10시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>描虎類犬</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>묘호류견: 
+「호랑이를 그리려다 실패하여 개와 비슷하게 되었다」
+높은 뜻을 갖고 어떤 일을 성취하려다가 중도에 그쳐 다른 사람의 조소를 받는 것을 비유하는 말</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>10시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>格物致知</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>견물생지</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>격물치지: 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>街談巷說</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>가담항설: 
+1)길거리나 세상 사람들 사이에 떠도는 이야기
+2)세상에 떠도는 뜬 소문</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>一絲不亂</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>일사불란: 
+「한 오라기의 실도 흐트러지지 않았다」
+질서나 체계 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>10시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>難攻不落</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>난공불략</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>난공불락</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>10시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>望蜀之歎</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>망구지탄</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>망촉지탄: 
+「촉 땅을 얻고 싶어 하는 탄식」
+인간의 욕심은 한이 없음을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>10시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>類類相從</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">유유상종: 사물은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다
+</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>10시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>橘化爲枳</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>귤화위지: 
+「강남의 귤을 강북에 심으면 탱자가 된다」
+사람도 환경에 따라 기질이 변한다는 말</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>刎頸之交</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>문경지교: 
+「목을 벨 수 있는 벗」
+생사를 같이 할 수 있는 매우 소중한 벗</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>櫛風沐雨</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>즐풍지우</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>즐풍목우: 
+「바람에 머리를 빗고, 비에 몸을 씻는다」
+긴 세월을 이리저리 떠돌며 갖은 고생을 다함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>望雲之情</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>망운지청</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>망운지정: 
+1)「구름을 바라보며 그리워한다」
+2)타향에서 고향에 계신 부모를 생각함
+3)멀리 떠나온 자식이 어버이를 사모하여 그리는 정</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>狐假虎威</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>호가호위 : 
+「여우가 호랑이의 위세를 빌려 호기를 부린다」
+남의 세력을 빌어 위세를 부림</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>莫無可奈</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>막무가내: 도무지 어찌할 수 없음</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3804,14 +3804,816 @@
           <t>막무가내: 도무지 어찌할 수 없음</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D144" t="n">
+        <v>20230108</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>斷機之戒</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>단기지계:학문을 중도에서 그만두면 아무 쓸모없이 된다</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>05시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>左顧右眄</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>좌충우돌</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>좌고우면:무슨 일에 얼른 결정을 짓지 못함</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>05시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>一魚濁水</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>일어탁수:물고기 한 마리가 큰물을 흐림</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>05시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>渴而穿井</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>갈이천정:목이 말라야 비로소 샘을 판다</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>辭讓之心</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>사양지심:겸손이 남에게 사양하는 마음</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>추저낭중</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>추처낭중: 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>草綠同色</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>초록동색:같은 처지의 사람과 어울림</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>不問曲直</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>불문곡식</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>불문곡직: 
+1)「굽음과 곧음을 묻지 않는다」
+2)옳고 그름을 가리지 않고 함부로 일을 처리함 
+3)잘잘못을 묻지 않고 함부로 행함</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>곡복사신: 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>莫逆之友</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>막역지우:생사를 같이 할 수 있는 친밀한 벗</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>혼정신성: 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>拈華示衆</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>염화시중:말로 통하지 않고 마음에서 마음으로 전함</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>唯一無二</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>유일무이:둘이 아니고 오직 하나뿐임</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>曠日彌久</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>광일미구:헛되이 세월을 보내며 일을 오래 끈다</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>伏地不動</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>복지부동:주어진 일이나 업무를 처리하는 데 몸을 사림</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>見危致命</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>견위지명</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>견위치명:나라의 위급함을 보고 몸을 바침</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>近墨者黑</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>근묵자흑:나쁜 사람을 가까이하면 그 버릇에 물들기 쉽다</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>惻隱之心</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>사양지심</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>측은지심:다른 사람의 불행을 불쌍히 여기는 마음</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>五獸不動</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>오수부동:사회 조직이 서로 견제하는 여러 세력으로 이루어져 있음</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>05시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>焦眉之急</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>초미지급:눈썹에 불이 붙었다, 매우 급함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>05시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>不問曲直</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>불무녹ㄱ직</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>불문곡직: 
+1)「굽음과 곧음을 묻지 않는다」
+2)옳고 그름을 가리지 않고 함부로 일을 처리함 
+3)잘잘못을 묻지 않고 함부로 행함</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>05시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>自繩自縛</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>자포자기</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>자승자박:제 스스로 한 말과 행동으로 인해 처지가 곤란하게 된 경우</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>05시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>斑衣之戱</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>반의지희:늙어서도 부모에게 효양함</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>05시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>阿鼻叫喚</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>아비규환:비참한 지경에 빠져 울부짖는 참상</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>05시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>不撤晝夜</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>불철주야:어떤 일에 몰두하여 조금도 쉴 사이 없이 밤낮을 가리지 아니함</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>05시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>百難之中</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>백난지중:온갖 괴로움과 어려움을 겪는 가운데</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>05시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>下意上達</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>하의상달:아랫사람의 뜻을 윗사람에게 전달한다</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>05시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>以熱治熱</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>이열치열:힘에는 힘으로, 강한 것에는 강한 것으로 상대함</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>05시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>束手無策</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>속수무책:
+「손을 묶인 듯이 어찌 할</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>05시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>犬兎之爭</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>견위지쟁</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>견토지쟁:양자의 싸움에서 제3자가 이득을 얻음</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>05시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>福輕乎羽</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>복경호우:마음 먹기에 따라 행복하게 된다</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>05시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>滿場一致</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>만장일치</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>05시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>近墨者黑</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>극묵자흑</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>근묵자흑:나쁜 사람을 가까이하면 그 버릇에 물들기 쉽다</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>05시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>斷機之戒</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>단기지계:학문을 중도에서 그만두면 아무 쓸모없이 된다</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>05시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>生口不網</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>생구불망:가난하지만 그럭저럭 먹고 살 수 있음</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>05시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>暗中摸索</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>암중모색:어림짐작으로 사물을 알아내려 함</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>20230123</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>05시 21분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4606,14 +4606,800 @@
           <t>암중모색:어림짐작으로 사물을 알아내려 함</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D180" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>05시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>吾鼻三尺</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>오비삼척:내 코가 석자</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>康衢煙月</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>강구연월:번화한 거리에 달빛이 은은함 태평성대의 평화로운 풍경</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>遼東之豕</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>요동지시:남이 보기에는 하찮은 것을 대단히 귀한 것으로 생각하는 어리석은 태도</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>阿鼻叫喚</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>아비규환:비참한 지경에 빠져 울부짖는 참상</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>百難之中</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>백란지중</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>백난지중:온갖 괴로움과 어려움을 겪는 가운데</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>17시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>藏頭露尾</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>장두노미: 
+「머리는 감추었는데 꼬리는 드러나 있다」
+「진실을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>17시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>伏地不動</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>복지부동:주어진 일이나 업무를 처리하는 데 몸을 사림</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>自繩自縛</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>자가당착</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>자승자박:제 스스로 한 말과 행동으로 인해 처지가 곤란하게 된 경우</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>斷機之戒</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>금단지계</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>단기지계:학문을 중도에서 그만두면 아무 쓸모없이 된다</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>曠日彌久</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>광일미구:헛되이 세월을 보내며 일을 오래 끈다</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>17시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>一魚濁水</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>일어탁수:물고기 한 마리가 큰물을 흐림</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>滿場一致</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>만장일치</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>暗中摸索</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>암중모색:어림짐작으로 사물을 알아내려 함</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>침소봉대:
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>下意上達</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>하의상달:아랫사람의 뜻을 윗사람에게 전달한다</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>各樣各色</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>각양각색:각기 다른 여러 가지 모양과 빛깔</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>敎外別傳</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>각양각색</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>교외별전,선종에서, 부처의 가르침을 글에 의하지 않고 바로 마음에서 마음으로 전하여 진리를 깨닫게 하는 법</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>吾鼻三尺</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>오비삼척:내 코가 석자</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>途中下車</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>도중하차:시작한 일을 끝내지 않고 중간에서 그만둠</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>焦眉之急</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>초미지급:눈썹에 불이 붙었다, 매우 급함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>生口不網</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>생구불양</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>생구불망:가난하지만 그럭저럭 먹고 살 수 있음</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>暗中摸索</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>암중모색:어림짐작으로 사물을 알아내려 함</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>曠日彌久</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>광일미구:헛되이 세월을 보내며 일을 오래 끈다</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>康衢煙月</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>강구연월:번화한 거리에 달빛이 은은함 태평성대의 평화로운 풍경</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>추처낭중: 
+「주머니 속에 있는 송곳」이란 뜻으로, 재능이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적 의미</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>換骨奪胎</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>환골탈태:딴사람처럼 됨</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>客反爲主</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>객반위주:손님이 오히려 주인인 체하다</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>鍊磨長養</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>연마장양</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>阿鼻叫喚</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>아비규환:비참한 지경에 빠져 울부짖는 참상</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>18시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>面從腹背</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>면종복배:겉으로는 순종하는 체하고 속으로는 딴마음을 먹음</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>18시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>혼정신성: 
+「저녁에는 잠자리를 보아 드리고, 아침에는 문안을 드린다」
+「자식이 아침저녁으로 부모의 안부를 물어서 살핌」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>18시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>謙讓之辭</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>측은지비</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>겸양지사:겸손의 말</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>笑裏藏刀</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>소리장도:웃음 속에 칼을 감춘다 말은 좋게 하나 마음속으로는 해칠 뜻을 가진 것</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>附和雷同</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>부화뇌동:소신 없이 그저 남이 하는 대로 따라감</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>唯一無二</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>유일무이:둘이 아니고 오직 하나뿐임</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>福輕乎羽</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>복경호우:마음 먹기에 따라 행복하게 된다</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>20230123</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>05시 21분</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
         </is>
       </c>
     </row>
